--- a/src/test/resources/DataDriven/dat.xlsx
+++ b/src/test/resources/DataDriven/dat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automatizacion\SerenityBDD\SerenityEmail\belcorp\src\test\resources\DataDriven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808E17EE-BC38-439A-8A4D-A537876541EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558CC71E-E588-47EB-9316-3ABF5192BE54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>bandeja</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t xml:space="preserve"> https://XYS.com/mx/p/200095640/KarlaLbel?sap-outbound-id=AD2975C8BA88069A37EF8D960118F23D43E715A4&amp;utm_source=SAPHybris&amp;utm_medium=email&amp;utm_campaign=SEND_TEST&amp;utm_term=IKU_202015_MTO-ES-DT20_WU_T_ES___Link___MQ-ESIKA&amp;utm_content=mx___ES</t>
+  </si>
+  <si>
+    <t>XX</t>
   </si>
 </sst>
 </file>
@@ -401,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,6 +450,61 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
